--- a/results/2015年第2季.xlsx
+++ b/results/2015年第2季.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,6 +739,7584 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>106.5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>477,826</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>377,111</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90,286</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>76,488</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>92,418</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>-72,121</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>92,149</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>653,433</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>1,344,433</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>3,244,029</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>50</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>6,143,998</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1,815,035</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1,187,969</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1,062,641</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1,798,385</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>-189,091</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>10,330</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>1,422,472</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>10,059,638</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>7,749,535</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>35,760,384</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>39.25</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>7,123,194</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>918,985</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>421,047</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>124,831</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>197,382</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>-912,945</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>112,823</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-1,081,928</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>16,345,783</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>14,939,030</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>42,317,217</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>304.5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>8,442,157</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1,984,066</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1,171,903</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>884,517</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>804,606</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>-263,985</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>-136,976</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>785,505</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>9,564,213</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>1,632,975</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>27,895,700</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>324.5</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>206,226</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>114,354</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72,914</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>61,279</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>16,381</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>-29,141</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>14,716</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>323,898</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>53,677</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1,178,120</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>143.5</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>15,650,631</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1,583,691</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>863,597</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>744,635</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1,021,912</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>-2,476,854</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1,189,079</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>779,651</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>25,083,421</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>6,127,359</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>44,767,952</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>44.25</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4,413</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2,042</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-22,555</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>-22,582</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>-46,835</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>-4,948</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>97,158</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-27,450</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>60,687</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>-0.83</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>-0.81</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>10,037</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>2,756,301</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>-0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>49</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>3,098,992</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1,201,305</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>901,512</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>536,635</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1,106,828</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>-856,750</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>15,437</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>726,446</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>6,460,537</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>11,121,023</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>23,424,188</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>18.7</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>958,838</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>113,591</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>-10,143</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1,128</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>146,536</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>-14,254</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>-105,973</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>123,892</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1,693,400</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>791,029</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>2,891,590</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>71</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>4,288,059</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>931,448</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>641,452</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>439,879</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1,078,671</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>264,209</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>583,523</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>70,334</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>18,309,821</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>13,347,482</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>41,487,852</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>26.85</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>3,929,486</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>391,023</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>136,452</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>108,402</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>457,232</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>-189,613</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>-343,755</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>262,970</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>3,979,111</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>3,139,110</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>9,077,999</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>10.7</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>7,652,831</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>248,931</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-56,904</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>348,107</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1,114,323</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>150,940</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>-1,048,789</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>940,149</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>21,479,707</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>16,451,886</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>75,461,521</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15.95</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>348,854</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>84,907</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>16,398</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>18,264</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>70,594</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>-1,735</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>70,328</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>586,942</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>539,492</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1,444,356</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>248</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>14,687,542</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5,353,469</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>398,671</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>385,893</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1,669,386</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>-500,477</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>512,528</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>1,231,923</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>21,266,251</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>8,432,794</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>25,543,464</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>40.35</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>434,143</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>78,337</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>-13,015</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>-15,700</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-48,882</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>-46,145</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>102,316</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>-65,592</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1,830,393</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>-1.43</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>-0.40</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>1,416,253</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>2,899,748</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>-0.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>1,490,234</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>426,183</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>285,004</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>210,351</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>707,228</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>-537,462</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>-349,512</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>119,174</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>4,860,835</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>9,136,087</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>13,850,844</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2,825,266</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>866,796</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>226,335</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>95,127</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>109,856</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>-163,154</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>-24,278</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>24,295</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>6,168,966</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>675,156</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>13,057,512</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>513,627</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>124,693</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>17,317</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>16,176</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>27,024</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>-20,944</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>6,769</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>359,413</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>125,511</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>845,669</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>1,341,283</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>269,154</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>170,347</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>111,878</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>547,223</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>-319,036</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>-38,766</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>232,851</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>2,955,880</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>6,526,807</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>8,894,755</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>289,187</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>48,861</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>-13,489</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>-27,753</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-30,512</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>-36,443</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>-58,772</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>-75,154</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>606,873</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>-2.10</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>-1.34</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>693,834</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>1,858,998</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>-0.30</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>95,645</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>27,148</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>15,186</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>11,788</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>-3,527</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>150,815</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>308,644</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>797,463</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>31.6</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>76,756</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>49,028</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-9,718</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>-9,952</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>33,840</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>-8,600</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>28,995</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>108,486</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>-2.29</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>-1.78</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>144,217</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>540,340</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>-0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>103.5</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>1,097,998</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>377,327</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>318,424</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>264,748</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>402,292</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>-84,360</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>89,351</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>324,727</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>1,057,966</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>10.48</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>1,249,810</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>3,642,229</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1,019,405</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>476,112</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>109,562</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>80,582</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>30,333</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>-243,381</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>-2,741</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>-280,805</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>2,630,875</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>2,462,698</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>6,199,896</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>37.95</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>5,520,012</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>422,198</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>55,208</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>210,068</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>334,845</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>-29,568</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>-384,157</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>312,043</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>3,732,758</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>3,836,985</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>7,893,122</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>45.75</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>4,663,863</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>252,986</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>-146,881</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>-266,097</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>579,137</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>-53,957</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>-964,620</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>554,630</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>11,664,553</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>-3.32</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>-1.15</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>4,577,001</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>19,176,750</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>-1.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>-60,335</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>-59,655</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>-2,193</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>17,832</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>25,541</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>695,898</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>5,030,042</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>194,295</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>71,349</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>66,972</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>3,420,684</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>-124,430</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>-1,641,767</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>3,314,135</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>10,237,625</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>10,960,166</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>23,816,299</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>1,051,852</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>281,812</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>142,081</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>102,241</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>196,246</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>-27,503</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>-496</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>205,761</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>972,658</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>913,263</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>2,973,036</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>121</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>733,923</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>160,386</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>44,202</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>32,511</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>104,326</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>-12,630</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>219,725</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>97,329</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1,539,708</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>213,570</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>2,825,912</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>8,613,122</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1,415,488</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>112,943</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>307,739</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>216,246</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>-36,688</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>-600,762</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>-2,138</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>24,564,836</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>12,553,790</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>40,829,973</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>200,784</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>44,728</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>35,763</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>16,078</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>38,874</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>-16,751</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>38,559</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>252,665</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>370,532</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>2,852,695</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>111,173</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>4,991</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>358,474</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>25.3</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>73,562,673</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7,257,332</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>3,928,068</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3,315,961</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>14,111,547</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>-7,248,305</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>-822,944</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>7,665,131</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>357,558,680</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>452,554,621</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>679,204,538</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>1,853,119</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>-21,556</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>-75,806</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>-134,667</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>61,820</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>-194,527</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>191,769</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>-132,007</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>10,084,533</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>-3.35</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>-0.65</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>10,189,734</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>14,038,977</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>-0.21</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>837,398</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>-15,902</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>-43,407</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>71,929</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>-5,674</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>-23,810</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>66,255</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>2,064,075</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>-1.18</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>-0.71</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>971,840</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>5,536,233</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>-0.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>68.59999999999999</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>390,466</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>233,126</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>57,255</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>47,477</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>55,278</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>-8,174</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>-66,556</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>46,988</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>948,089</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>673,324</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>1,659,639</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>46.4</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>11,154</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3,790</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>-9,858</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>-21,988</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>-210,918</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>-14,243</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>272,072</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>-211,171</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>4,062,415</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>-0.95</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>26,575</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>6,310,655</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>-0.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>235,346</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>27,941</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>-2,762</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>-3,132</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>99,618</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>-2,343</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>-88,932</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>97,802</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>371,907</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>-0.41</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>-0.21</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>414,449</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>1,133,314</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>360,550</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>66,642</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>22,298</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>15,997</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>39,041</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>-17,957</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>12,510</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>37,957</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>458,608</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>268,076</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>1,732,410</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Error</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>1,161,663</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>1,003,563</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>1,913,159</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>930,372</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>26,591</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>-73,447</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>-114,877</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-97,623</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>-60,139</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>23,669</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>-129,559</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1,845,077</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>-4.96</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>-2.73</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>905,906</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>4,053,856</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>-1.24</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>404,087</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>50,239</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>-11,418</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>-16,253</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>-56,098</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>-88,996</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>154,953</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>-144,259</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>1,476,769</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>-1.55</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>-0.51</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>816,290</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>2,489,496</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>-0.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>22.05</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>5,500,106</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1,428,295</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>-399,231</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>-276,725</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>341,972</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>-203,204</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>-303,031</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>124,677</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>27,924,046</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>-2.63</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>-0.58</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>14,212,700</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>38,294,268</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>-0.61</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>1,143,423</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>387,617</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>-24,160</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>-52,643</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>-13,713</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>-7,440</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>-45,343</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>-30,297</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>7,527,765</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>-0.85</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>4,903,217</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>13,785,160</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>-0.13</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>53.9</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>105,025,069</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>35,927,951</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>6,254,269</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6,919,546</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>10,303,657</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>6,724,009</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>-6,165,210</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>5,758,032</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>262,812,443</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>158,470,048</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>410,470,609</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2,612,582</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>10,434</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>-420,347</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>28,944</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>287,375</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>735,830</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>-1,026,782</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>169,894</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>11,858,042</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>18,888,366</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>33,469,215</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>3,450,865</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>167,000</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>-322,639</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>-338,791</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>433,861</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>28,572</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>-658,142</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>399,895</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>10,263,723</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>-1.26</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>-0.76</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>20,117,344</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>36,733,920</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>-0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>18.25</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>93,755,186</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>15,596,583</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>9,406,239</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5,406,121</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>17,022,457</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>-3,254,291</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>-11,762,696</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>13,239,346</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>165,014,345</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>211,767,648</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>402,549,563</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>11,155,776</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4,687,927</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>3,907,974</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4,264,873</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>4,418,119</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>-722,597</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>-3,968,010</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>3,635,772</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>59,878,184</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>51,033,685</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>107,619,121</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>808,341</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>152,960</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>59,045</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>24,419</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>518,377</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>-53,766</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>-56,094</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>516,690</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>9,384,755</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>2,965,446</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>11,277,683</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>972,708,221</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>70,041,890</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>33,110,917</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>26,393,678</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>43,231,845</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>-184,815,137</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>43,701,396</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>33,343,058</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1,320,452,917</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>328,559,655</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>2,291,068,124</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>4,025,560</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>178,640</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>21,073</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>36,951</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>-285,565</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>78,136</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>-69,362</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>-326,050</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>11,137,177</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>1,437,970</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>19,929,187</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>10,371,295</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5,323,215</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>476,919</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>220,462</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>317,292</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>-318,880</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>2,189,025</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>-258,968</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>68,282,951</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>46,507,881</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>105,915,888</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>69.7</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>1,854,931</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>627,817</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>250,222</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1,832,238</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>-1,769,425</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>408,214</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>2,119,060</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>-1,786,829</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>23,385,454</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>2,995,452</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>56,146,699</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>16.95</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>184,563</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>33,560</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>17,905</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>17,479</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>42,104</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>-360</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>41,769</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>262,216</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>412,377</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>2,468,744</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>32.95</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>9,939,069</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2,132,191</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>811,712</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>654,097</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>497,257</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>264,399</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>473,339</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>-147,188</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>27,045,461</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>14,464,644</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>47,778,299</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>70.09999999999999</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>31,040,993</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>9,491,020</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>5,261,658</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3,273,168</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>7,656,689</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>-1,802,012</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>-91,218</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>5,749,965</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>88,379,805</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>105,833,987</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>171,638,631</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>97.09999999999999</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>56,920,593</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>21,209,689</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>13,197,359</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>11,362,612</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>18,130,063</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>-15,225,510</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>622,969</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>13,341,519</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>109,081,951</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>295,149,385</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>462,115,285</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>6,301,168</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>728,375</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>21,838</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>122,006</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>2,489,649</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>-2,817,449</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>90,010</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>7,232,178</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>3,048,343</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>16,253,214</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2,892,420</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1,647,659</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>1,395,673</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1,252,429</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>230,134</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>103,035</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>-238,437</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>230,134</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>9,664,805</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>15.07</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>627</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>18,344,665</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>183,975,641</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>30,703,727</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>28,255,999</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>24,691,850</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>30,735,022</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>1,727,569</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>-32,762,939</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>29,136,702</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>189,525,503</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>137,967,826</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>437,393,956</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>20.05</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>1,410,710</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>416,069</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>100,015</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>101,296</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>159,571</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>-56,147</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>-85,882</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>109,258</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>4,767,292</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>4,286,936</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>10,184,391</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>76.40000000000001</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>1,337,398</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>760,235</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91,087</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>125,184</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>133,179</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>64,829</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>-37,209</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>81,339</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>6,824,286</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>1,934,175</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>15,575,703</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>33.55</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>5,485,092</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1,214,376</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>370,397</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>134,619</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>1,168,364</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>-817,498</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>-359,111</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>375,669</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>16,709,356</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>17,392,018</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>34,612,735</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>324.5</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>9,662,102</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1,708,812</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>424,114</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1,386,141</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>712,848</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>680,298</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>584,249</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>19,469,507</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>1,900,731</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>39,218,650</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>40.05</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>1,185,673</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>395,100</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>256,146</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>192,241</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>131,801</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>-214,707</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>31,719</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>-101,483</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>4,067,818</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>4,995,310</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>8,896,893</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>17.05</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>34,800,478</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1,605,907</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>348,903</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>-49,988</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2,255,422</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>-2,347,422</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>127,920</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>1,472,337</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>121,997,717</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>102,635,624</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>188,142,261</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>1,111,036</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>76,716</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>27,079</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>-36,247</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>384,323</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>-823,406</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>317,550</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>-481,333</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>23,559,190</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>-0.40</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>-0.52</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>30,346,389</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>32,460,572</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>-0.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>33.1</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>55,445,564</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>13,224,261</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>4,373,629</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5,566,081</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>5,026,225</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>-5,325,968</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>9,952,684</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>-854,493</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>265,194,140</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>141,712,900</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>524,363,010</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>8.01</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>284,134</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>13,086</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>-2,577</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>-4,231</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>17,648</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>-29,379</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>85,669</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>1,104</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>1,856,358</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>-0.14</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>1,783,502</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>4,939,532</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>37.45</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>534,829</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>166,980</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>70,697</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>46,913</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>20,111</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>-54,501</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>7,559</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>9,401</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>430,284</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>583,505</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>1,753,343</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>38,011,554</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>8,723,482</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>3,876,431</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4,545,040</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>11,458,720</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>-14,757,417</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>13,824,009</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>-575,155</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>106,873,131</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>167,959,867</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>331,255,618</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>38.05</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2,353,218</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>420,900</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>230,578</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>137,868</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>327,124</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>-203,737</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>-155,656</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>120,318</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>5,615,387</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>4,597,855</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>10,386,496</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>9.51</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>356,800</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>-8,630</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>-86,577</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>-156,434</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>42,470</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>-76,210</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>30,156</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>456,562</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>-4.20</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>-3.81</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>1,192,168</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>4,040,642</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>-0.32</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>28.15</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>4,345,477</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1,297,076</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>773,918</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>680,032</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>1,701,548</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>-2,523,580</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>962,728</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>-868,038</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>18,073,302</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>25,507,670</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>40,049,572</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>46.2</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>73,178,379</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2,598,740</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>915,307</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1,369,177</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>-1,883,791</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>-441,435</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>1,860,091</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>-2,133,712</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>92,314,955</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>6,941,988</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>133,420,263</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>28.7</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>5,773,661</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>848,825</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>100,620</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>19,673</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>801,262</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>-128,470</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>22,001</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>725,570</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>5,811,689</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>3,691,570</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>10,167,473</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>53.4</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>9,409,808</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>852,871</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>280,909</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>279,499</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>681,830</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>172,643</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>-651,358</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>612,004</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>15,066,481</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>2,030,924</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>25,166,754</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>32.3</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>5,616,883</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>284,094</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>68,467</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>43,613</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>-299,659</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>-7,640</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>306,900</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>-307,009</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>5,722,237</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>342,865</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>7,585,846</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>27.35</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>868,228</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>341,181</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>102,765</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>69,777</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>114,162</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>-107,591</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>56,526</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>3,184</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>3,115,531</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>6,476,279</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>11,981,205</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>657,997</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>248,167</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>-9,620</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>941,227</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>-675,522</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>32,275</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>690,341</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>5,243,005</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>-0.19</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>6,965,749</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>10,274,409</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>291</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>1,638,984</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>600,352</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>357,656</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>292,929</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>128,978</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>-57,734</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>-19,706</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>52,727</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>4,509,773</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>3,262,709</t>
+        </is>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>7,689,699</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>17.55</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>54,533</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>10,629</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-60,352</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>43,860</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>11,883</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>-366,909</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>502,909</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>-395,473</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>2,201,311</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>2,372,407</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>4,549,686</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>163</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>13,861,422</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2,799,087</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1,305,664</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1,075,682</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2,533,115</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>-769,968</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>-1,903,555</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>1,750,174</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>13,159,925</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>11,888,210</t>
+        </is>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>24,972,638</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>265.5</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>15,614,462</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3,514,930</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>1,421,303</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>842,479</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>1,889,557</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>-1,285,262</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>-510,150</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>1,527,414</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>27,949,117</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>7,371,331</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>46,192,807</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>12,159,518</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3,067,055</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>902,872</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>993,048</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>1,739,559</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>-560,361</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>-486,847</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>1,252,084</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>28,759,749</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>14,418,399</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>79,764,098</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>9.619999999999999</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>935,114</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>113,023</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>22,069</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>22,527</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>123,737</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>-5,957</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>-106,125</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>115,977</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>2,193,286</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>999,024</t>
+        </is>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>4,873,666</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>4,954,694</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>996,074</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>283,585</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>267,040</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>449,267</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>-132,511</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>-116,568</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>337,086</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>13,261,079</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>5,823,001</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>34,439,132</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>25.35</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>199,032,656</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>7,567,902</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2,420,761</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1,493,308</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>-6,975,699</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>-1,498</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>-12,034,351</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>-8,032,491</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>214,837,594</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>24,022,053</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>317,088,973</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>299</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>108,406,938</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>16,045,683</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>4,873,453</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4,640,648</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>3,747,864</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>-479,880</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>-147,754</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>3,526,081</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>182,133,828</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>9,142,838</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>347,625,256</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>13.55</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>33,209,697</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3,734,708</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>643,758</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>791,317</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2,669,017</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>-1,063,951</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>-2,632,367</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>2,310,228</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>71,701,434</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="N96" t="inlineStr">
+        <is>
+          <t>19,159,710</t>
+        </is>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>101,161,139</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>250</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>10,026,947</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3,980,463</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>1,632,235</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1,332,693</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>1,483,951</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>-1,634,679</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>-4,605</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>1,177,313</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>13,348,822</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="N97" t="inlineStr">
+        <is>
+          <t>9,241,729</t>
+        </is>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>34,289,555</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>11,696,777</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1,876,681</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>179,641</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>355,589</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>3,134,193</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>110,370</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>3,117,961</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>12,778,204</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="N98" t="inlineStr">
+        <is>
+          <t>4,052,537</t>
+        </is>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>34,250,156</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>139,843</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>44,233</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>6,619</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>9,074</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>2,807</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>-2,107</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>-248</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>384,938</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>7,265</t>
+        </is>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>1,073,680</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>30.55</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2,177,072</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>192,927</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>76,167</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>65,956</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>-315,355</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>905</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>172,246</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>-315,733</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>3,150,519</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>375,750</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>4,943,493</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>146</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>298,422</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>267,429</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>-17,152</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>-45,363</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>73,968</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>-18,366</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>68,038</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>427,013</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>-2.65</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>-2.20</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>41,449</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>2,072,161</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>-0.51</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
